--- a/Project/2018-04-13.产品模块数据分析/产品模块数据分析_yj.xlsx
+++ b/Project/2018-04-13.产品模块数据分析/产品模块数据分析_yj.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="流量分析" sheetId="2" r:id="rId2"/>
     <sheet name="点击分析" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
   <si>
     <t>Home_TVLive</t>
   </si>
@@ -142,9 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SL_B2C_Article</t>
-  </si>
-  <si>
     <t>SL_B2C_Bigad</t>
   </si>
   <si>
@@ -221,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页三区块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页答题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +232,6 @@
   </si>
   <si>
     <t>首页搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页ICON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,31 +480,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新客UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客平均停留时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老客UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老客平均停留时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客跳失UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老客跳失UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>平均停留时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新客UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新客平均停留时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老客UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老客平均停留时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳失UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新客跳失UV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,7 +530,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老客跳失UV</t>
+    <t>SL_B2C_Article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页三区块</t>
+  </si>
+  <si>
+    <t>首页三区块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页ICON</t>
+  </si>
+  <si>
+    <t>首页ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV直播页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV直播页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL_B2C_Bigicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL_B2C_ICON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,7 +984,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -971,7 +1001,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,7 +1016,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1031,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1046,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1061,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1076,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1104,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,34 +1138,34 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
         <v>121</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1143,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1158,7 +1188,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1166,9 +1196,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -1184,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -1192,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1200,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -1208,150 +1238,150 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="A12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1368,7 +1398,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,13 +1423,13 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -1417,405 +1447,405 @@
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="9"/>
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="9"/>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="9"/>
+      <c r="D36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="9"/>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="9"/>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="9"/>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="9"/>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="9"/>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="9"/>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="9"/>
+      <c r="D43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="7"/>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C22" s="7"/>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="7"/>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="7"/>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="7"/>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="7"/>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="7"/>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C30" s="7"/>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C31" s="7"/>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C33" s="7"/>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="9"/>
+      <c r="D44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="7"/>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="7"/>
-      <c r="D37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="7"/>
-      <c r="D38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="7"/>
-      <c r="D39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="7"/>
-      <c r="D40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="7"/>
-      <c r="D41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="7"/>
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="7"/>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="7"/>
-      <c r="D44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
@@ -1823,10 +1853,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
@@ -1834,10 +1864,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
@@ -1845,10 +1875,10 @@
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1865,4 +1895,578 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("UPDATE DIM_PAGE A SET A.PAGE_CNM='",A1,"' WHERE A.PAGE_NAME='",B1,"' AND A.PAGE_CNM IS NULL;")</f>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页资讯模块' WHERE A.PAGE_NAME='SL_B2C_Article' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C48" si="0">CONCATENATE("UPDATE DIM_PAGE A SET A.PAGE_CNM='",A2,"' WHERE A.PAGE_NAME='",B2,"' AND A.PAGE_CNM IS NULL;")</f>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页大眼睛' WHERE A.PAGE_NAME='SL_B2C_Bigad' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页答题' WHERE A.PAGE_NAME='SL_B2C_Dt' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页楼层广告' WHERE A.PAGE_NAME='SL_B2C_Floorad' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页楼层商品' WHERE A.PAGE_NAME='SL_B2C_Floorgoods' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页优选好物' WHERE A.PAGE_NAME='SL_B2C_Homegood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页优选好物' WHERE A.PAGE_NAME='SL_B2C_Homegoods' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页找相似' WHERE A.PAGE_NAME='SL_B2C_Homegoodslike' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页搜索' WHERE A.PAGE_NAME='SL_B2C_Search' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='供应商商品' WHERE A.PAGE_NAME='SL_Good_Suppliergood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='供应商商品' WHERE A.PAGE_NAME='SL_Good_Supplier' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品规格' WHERE A.PAGE_NAME='SL_Good_Specifications' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='加购物车' WHERE A.PAGE_NAME='SL_Good_Shoppcaring' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品分享' WHERE A.PAGE_NAME='SL_Good_share' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='猜你喜欢' WHERE A.PAGE_NAME='SL_Good_Recommend' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品促销' WHERE A.PAGE_NAME='SL_Good_Promotion' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='提交订单' WHERE A.PAGE_NAME='SL_Good_Order' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品评价' WHERE A.PAGE_NAME='SL_Good_Evaluate' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品客服' WHERE A.PAGE_NAME='SL_Good_Customer' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品领券' WHERE A.PAGE_NAME='SL_Good_Coupons' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品收藏' WHERE A.PAGE_NAME='SL_Good_Collection' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='品牌商品' WHERE A.PAGE_NAME='SL_Good_Brandgood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='品牌点击' WHERE A.PAGE_NAME='SL_Good_Brand' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品大图' WHERE A.PAGE_NAME='SL_Good_BigPic' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品问答' WHERE A.PAGE_NAME='SL_Good_ASK' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='昨日热播' WHERE A.PAGE_NAME='SL_TV_Ygood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='TV直播间' WHERE A.PAGE_NAME='SL_TV_TVplay' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='TV直播查看更多' WHERE A.PAGE_NAME='SL_TV_TVlist2' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='节目表' WHERE A.PAGE_NAME='SL_TV_TVlist1' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='直播商品直播提醒' WHERE A.PAGE_NAME='SL_TV_Tvgoodremind' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='直播商品立即订购' WHERE A.PAGE_NAME='SL_TV_Tvgoodbuy' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='直播商品点击' WHERE A.PAGE_NAME='SL_TV_Tvgood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='中间广告位' WHERE A.PAGE_NAME='SL_TV_Middlead' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='品牌推荐' WHERE A.PAGE_NAME='SL_TV_brandAD' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='大眼睛' WHERE A.PAGE_NAME='SL_TV_Bigad' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='前日热播' WHERE A.PAGE_NAME='SL_TV_Bgood' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页三区块' WHERE A.PAGE_NAME='SL_B2C_Bigicon' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页ICON' WHERE A.PAGE_NAME='SL_B2C_ICON' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='首页' WHERE A.PAGE_NAME='Home' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='TV直播页' WHERE A.PAGE_NAME='Home_TVLive' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='TV直播页' WHERE A.PAGE_NAME='TV_home' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='频道页' WHERE A.PAGE_NAME='Channel' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='商品详情页' WHERE A.PAGE_NAME='Good' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='搜索页' WHERE A.PAGE_NAME='Search' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='个人中心' WHERE A.PAGE_NAME='Member' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE DIM_PAGE A SET A.PAGE_CNM='支付完成页' WHERE A.PAGE_NAME='PayEnd' AND A.PAGE_CNM IS NULL;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>